--- a/ORG_PORTION.xlsx
+++ b/ORG_PORTION.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAE167-8762-4B7D-A1C6-013197E06F8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B3C888-F7AA-49F4-9006-C0511A539456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>ORG_POR_PK</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>สกม.</t>
+  </si>
+  <si>
+    <t>ORG_POR_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_POR_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_POR_STATUS</t>
   </si>
 </sst>
 </file>
@@ -460,20 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="3" width="40.81640625" customWidth="1"/>
+    <col min="2" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +492,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41001</v>
       </c>
@@ -495,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41002</v>
       </c>
@@ -506,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41003</v>
       </c>
@@ -517,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41004</v>
       </c>
@@ -528,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41005</v>
       </c>
@@ -539,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41006</v>
       </c>
@@ -550,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41007</v>
       </c>
@@ -561,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41008</v>
       </c>
@@ -572,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41009</v>
       </c>
@@ -583,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41010</v>
       </c>
@@ -594,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41011</v>
       </c>
@@ -605,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41012</v>
       </c>
@@ -616,7 +634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41013</v>
       </c>
@@ -627,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41014</v>
       </c>
@@ -638,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41015</v>
       </c>
@@ -649,7 +667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41016</v>
       </c>
@@ -660,7 +678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41017</v>
       </c>
@@ -671,7 +689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41018</v>
       </c>
@@ -682,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41019</v>
       </c>
@@ -693,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41020</v>
       </c>
@@ -704,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41021</v>
       </c>
@@ -713,7 +731,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41022</v>
       </c>
@@ -724,7 +742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41023</v>
       </c>
@@ -735,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41024</v>
       </c>
@@ -746,7 +764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41025</v>
       </c>
@@ -757,7 +775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41026</v>
       </c>
@@ -768,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41027</v>
       </c>
@@ -779,7 +797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41028</v>
       </c>
@@ -790,7 +808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41029</v>
       </c>
@@ -801,7 +819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41030</v>
       </c>
@@ -812,7 +830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41031</v>
       </c>
@@ -823,7 +841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41032</v>
       </c>
